--- a/data/df.xlsx
+++ b/data/df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="410">
   <si>
     <t>state</t>
   </si>
@@ -73,6 +73,9 @@
     <t>latitude</t>
   </si>
   <si>
+    <t>finalists</t>
+  </si>
+  <si>
     <t>virginia</t>
   </si>
   <si>
@@ -1193,6 +1196,54 @@
   </si>
   <si>
     <t>3% tax just for pint pleasant in addition to all state and other taxes</t>
+  </si>
+  <si>
+    <t>Permit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>permit</t>
+  </si>
+  <si>
+    <t>(it's own place. backup bekshre)</t>
+  </si>
+  <si>
+    <t>(berkshire better)</t>
+  </si>
+  <si>
+    <t>(it's own place - backup bekshire)</t>
+  </si>
+  <si>
+    <t>(shore + far)</t>
+  </si>
+  <si>
+    <t>(ocean)</t>
+  </si>
+  <si>
+    <t>"Fuck it"</t>
+  </si>
+  <si>
+    <t>(seasonal + ocean + worse than nh)</t>
+  </si>
+  <si>
+    <t>(seasonality)</t>
+  </si>
+  <si>
+    <t>(seasonality + hotels)</t>
+  </si>
+  <si>
+    <t>shitty scores</t>
+  </si>
+  <si>
+    <t>Eli hates maryland</t>
+  </si>
+  <si>
+    <t>eli hates maryland</t>
+  </si>
+  <si>
+    <t>all around shit</t>
   </si>
 </sst>
 </file>
@@ -1550,13 +1601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S198"/>
+  <dimension ref="A1:T198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,19 +1665,22 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F2">
         <v>55</v>
@@ -1662,7 +1716,7 @@
         <v>31345</v>
       </c>
       <c r="Q2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R2">
         <v>-77.79000000000001</v>
@@ -1671,18 +1725,18 @@
         <v>38.71</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F3">
         <v>980</v>
@@ -1718,7 +1772,7 @@
         <v>225553</v>
       </c>
       <c r="Q3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R3">
         <v>-77.09999999999999</v>
@@ -1726,16 +1780,19 @@
       <c r="S3">
         <v>38.87</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4">
         <v>677</v>
@@ -1771,7 +1828,7 @@
         <v>346200</v>
       </c>
       <c r="Q4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R4">
         <v>-77.08</v>
@@ -1779,19 +1836,22 @@
       <c r="S4">
         <v>38.81</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5">
         <v>62</v>
@@ -1827,7 +1887,7 @@
         <v>32167</v>
       </c>
       <c r="Q5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R5">
         <v>-78.18000000000001</v>
@@ -1835,19 +1895,22 @@
       <c r="S5">
         <v>38.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F6">
         <v>46</v>
@@ -1883,7 +1946,7 @@
         <v>735</v>
       </c>
       <c r="Q6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R6">
         <v>-78.38</v>
@@ -1891,19 +1954,22 @@
       <c r="S6">
         <v>38.76</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F7">
         <v>49</v>
@@ -1939,7 +2005,7 @@
         <v>4795</v>
       </c>
       <c r="Q7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R7">
         <v>-78.25</v>
@@ -1948,18 +2014,18 @@
         <v>38.37</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F8">
         <v>122</v>
@@ -1995,7 +2061,7 @@
         <v>71913</v>
       </c>
       <c r="Q8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R8">
         <v>-78.87</v>
@@ -2003,19 +2069,22 @@
       <c r="S8">
         <v>38.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -2051,7 +2120,7 @@
         <v>791</v>
       </c>
       <c r="Q9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R9">
         <v>-78.8</v>
@@ -2059,19 +2128,22 @@
       <c r="S9">
         <v>38.83</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F10">
         <v>260</v>
@@ -2107,7 +2179,7 @@
         <v>11560</v>
       </c>
       <c r="Q10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R10">
         <v>-78.45</v>
@@ -2115,19 +2187,22 @@
       <c r="S10">
         <v>38.66</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F11">
         <v>219</v>
@@ -2163,7 +2238,7 @@
         <v>4562</v>
       </c>
       <c r="Q11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R11">
         <v>-78.73999999999999</v>
@@ -2171,19 +2246,22 @@
       <c r="S11">
         <v>38.36</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F12">
         <v>44</v>
@@ -2219,7 +2297,7 @@
         <v>4723</v>
       </c>
       <c r="Q12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R12">
         <v>-78.62</v>
@@ -2227,19 +2305,22 @@
       <c r="S12">
         <v>38.48</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F13">
         <v>63</v>
@@ -2275,7 +2356,7 @@
         <v>6129</v>
       </c>
       <c r="Q13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R13">
         <v>-78.5</v>
@@ -2283,19 +2364,22 @@
       <c r="S13">
         <v>38.57</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F14">
         <v>813</v>
@@ -2331,7 +2415,7 @@
         <v>119475</v>
       </c>
       <c r="Q14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R14">
         <v>-78.41</v>
@@ -2340,18 +2424,18 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F15">
         <v>81</v>
@@ -2387,7 +2471,7 @@
         <v>3750</v>
       </c>
       <c r="Q15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R15">
         <v>-78.83</v>
@@ -2396,18 +2480,18 @@
         <v>38.03</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F16">
         <v>77</v>
@@ -2443,7 +2527,7 @@
         <v>8198</v>
       </c>
       <c r="Q16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R16">
         <v>-78.69</v>
@@ -2452,18 +2536,18 @@
         <v>38.06</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F17">
         <v>70</v>
@@ -2499,7 +2583,7 @@
         <v>6415</v>
       </c>
       <c r="Q17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R17">
         <v>-78.43000000000001</v>
@@ -2508,18 +2592,18 @@
         <v>38.3</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F18">
         <v>69</v>
@@ -2555,7 +2639,7 @@
         <v>31698</v>
       </c>
       <c r="Q18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R18">
         <v>-78.90000000000001</v>
@@ -2564,18 +2648,18 @@
         <v>38.06</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F19">
         <v>97</v>
@@ -2611,7 +2695,7 @@
         <v>8815</v>
       </c>
       <c r="Q19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R19">
         <v>-77.73</v>
@@ -2619,19 +2703,22 @@
       <c r="S19">
         <v>37.96</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F20">
         <v>47</v>
@@ -2667,7 +2754,7 @@
         <v>21284</v>
       </c>
       <c r="Q20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R20">
         <v>-76.54000000000001</v>
@@ -2675,19 +2762,22 @@
       <c r="S20">
         <v>37.43</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F21">
         <v>148</v>
@@ -2723,7 +2813,7 @@
         <v>193059</v>
       </c>
       <c r="Q21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R21">
         <v>-77.54000000000001</v>
@@ -2732,18 +2822,18 @@
         <v>37.63</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F22">
         <v>122</v>
@@ -2779,7 +2869,7 @@
         <v>8829</v>
       </c>
       <c r="Q22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R22">
         <v>-77.90000000000001</v>
@@ -2787,19 +2877,22 @@
       <c r="S22">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F23">
         <v>1058</v>
@@ -2835,7 +2928,7 @@
         <v>90437</v>
       </c>
       <c r="Q23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R23">
         <v>-76.77</v>
@@ -2844,18 +2937,18 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F24">
         <v>678</v>
@@ -2891,7 +2984,7 @@
         <v>379472</v>
       </c>
       <c r="Q24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R24">
         <v>-77.45999999999999</v>
@@ -2900,18 +2993,18 @@
         <v>37.55</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F25">
         <v>205</v>
@@ -2947,7 +3040,7 @@
         <v>4441</v>
       </c>
       <c r="Q25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R25">
         <v>-76.01000000000001</v>
@@ -2956,18 +3049,18 @@
         <v>37.27</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F26">
         <v>52</v>
@@ -3003,7 +3096,7 @@
         <v>3214</v>
       </c>
       <c r="Q26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R26">
         <v>-75.73999999999999</v>
@@ -3012,18 +3105,18 @@
         <v>37.7</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F27">
         <v>2239</v>
@@ -3059,7 +3152,7 @@
         <v>449700</v>
       </c>
       <c r="Q27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R27">
         <v>-76.04000000000001</v>
@@ -3067,19 +3160,22 @@
       <c r="S27">
         <v>36.73</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F28">
         <v>528</v>
@@ -3115,7 +3211,7 @@
         <v>245724</v>
       </c>
       <c r="Q28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R28">
         <v>-76.29000000000001</v>
@@ -3123,19 +3219,22 @@
       <c r="S28">
         <v>36.92</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F29">
         <v>164</v>
@@ -3171,7 +3270,7 @@
         <v>178461</v>
       </c>
       <c r="Q29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R29">
         <v>-76.51000000000001</v>
@@ -3180,18 +3279,18 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F30">
         <v>168</v>
@@ -3227,7 +3326,7 @@
         <v>137349</v>
       </c>
       <c r="Q30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R30">
         <v>-76.29000000000001</v>
@@ -3236,18 +3335,18 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F31">
         <v>99</v>
@@ -3283,7 +3382,7 @@
         <v>96071</v>
       </c>
       <c r="Q31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R31">
         <v>-76.31</v>
@@ -3292,18 +3391,18 @@
         <v>36.81</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F32">
         <v>41</v>
@@ -3345,18 +3444,18 @@
         <v>37.2</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F33">
         <v>169</v>
@@ -3392,7 +3491,7 @@
         <v>170026</v>
       </c>
       <c r="Q33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R33">
         <v>-80.05</v>
@@ -3401,18 +3500,18 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F34">
         <v>231</v>
@@ -3448,7 +3547,7 @@
         <v>54827</v>
       </c>
       <c r="Q34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R34">
         <v>-80.42</v>
@@ -3457,18 +3556,18 @@
         <v>37.23</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F35">
         <v>76</v>
@@ -3504,7 +3603,7 @@
         <v>30394</v>
       </c>
       <c r="Q35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R35">
         <v>-80.40000000000001</v>
@@ -3512,19 +3611,22 @@
       <c r="S35">
         <v>37.14</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F36">
         <v>262</v>
@@ -3560,7 +3662,7 @@
         <v>3589</v>
       </c>
       <c r="Q36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R36">
         <v>-79.48</v>
@@ -3568,19 +3670,22 @@
       <c r="S36">
         <v>37.16</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F37">
         <v>294</v>
@@ -3616,7 +3721,7 @@
         <v>10405</v>
       </c>
       <c r="Q37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R37">
         <v>-79.63</v>
@@ -3624,19 +3729,22 @@
       <c r="S37">
         <v>37.18</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F38">
         <v>56</v>
@@ -3672,7 +3780,7 @@
         <v>2981</v>
       </c>
       <c r="Q38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R38">
         <v>-81.78</v>
@@ -3681,18 +3789,18 @@
         <v>36.63</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F39">
         <v>107</v>
@@ -3728,7 +3836,7 @@
         <v>35789</v>
       </c>
       <c r="Q39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R39">
         <v>-79.06</v>
@@ -3736,19 +3844,22 @@
       <c r="S39">
         <v>38.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F40">
         <v>132</v>
@@ -3784,7 +3895,7 @@
         <v>16569</v>
       </c>
       <c r="Q40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R40">
         <v>-79.44</v>
@@ -3793,18 +3904,18 @@
         <v>37.78</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F41">
         <v>440</v>
@@ -3840,7 +3951,7 @@
         <v>101376</v>
       </c>
       <c r="Q41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R41">
         <v>-79.19</v>
@@ -3849,18 +3960,18 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3887,18 +3998,18 @@
         <v>41.02</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F43">
         <v>21</v>
@@ -3934,7 +4045,7 @@
         <v>14888</v>
       </c>
       <c r="Q43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R43">
         <v>-72.40000000000001</v>
@@ -3942,19 +4053,22 @@
       <c r="S43">
         <v>42.27</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -3990,7 +4104,7 @@
         <v>40280</v>
       </c>
       <c r="Q44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R44">
         <v>-72.64</v>
@@ -3998,19 +4112,22 @@
       <c r="S44">
         <v>42.21</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F45">
         <v>112</v>
@@ -4046,7 +4163,7 @@
         <v>15970</v>
       </c>
       <c r="Q45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R45">
         <v>-72.64</v>
@@ -4055,18 +4172,18 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F46">
         <v>52</v>
@@ -4107,19 +4224,22 @@
       <c r="S46">
         <v>42.32</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F47">
         <v>94</v>
@@ -4161,18 +4281,18 @@
         <v>42.12</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F48">
         <v>95</v>
@@ -4208,7 +4328,7 @@
         <v>45001</v>
       </c>
       <c r="Q48" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R48">
         <v>-73.26000000000001</v>
@@ -4216,19 +4336,22 @@
       <c r="S48">
         <v>42.45</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F49">
         <v>73</v>
@@ -4269,19 +4392,22 @@
       <c r="S49">
         <v>42.33</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F50">
         <v>274</v>
@@ -4322,19 +4448,22 @@
       <c r="S50">
         <v>42.19</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F51">
         <v>19</v>
@@ -4370,7 +4499,7 @@
         <v>2666</v>
       </c>
       <c r="Q51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R51">
         <v>-73.06999999999999</v>
@@ -4378,19 +4507,22 @@
       <c r="S51">
         <v>42.42</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F52">
         <v>129</v>
@@ -4426,7 +4558,7 @@
         <v>2755</v>
       </c>
       <c r="Q52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R52">
         <v>-73.22</v>
@@ -4434,19 +4566,22 @@
       <c r="S52">
         <v>42.51</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F53">
         <v>12</v>
@@ -4482,7 +4617,7 @@
         <v>2374</v>
       </c>
       <c r="Q53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R53">
         <v>-72.15000000000001</v>
@@ -4491,18 +4626,18 @@
         <v>42.05</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F54">
         <v>20</v>
@@ -4538,7 +4673,7 @@
         <v>6442</v>
       </c>
       <c r="Q54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="R54">
         <v>-72.06</v>
@@ -4547,18 +4682,18 @@
         <v>42.09</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F55">
         <v>164</v>
@@ -4594,7 +4729,7 @@
         <v>184185</v>
       </c>
       <c r="Q55" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R55">
         <v>-71.8</v>
@@ -4603,18 +4738,18 @@
         <v>42.26</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F56">
         <v>24</v>
@@ -4650,7 +4785,7 @@
         <v>4255</v>
       </c>
       <c r="Q56" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R56">
         <v>-71.36</v>
@@ -4659,18 +4794,18 @@
         <v>42.23</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F57">
         <v>25</v>
@@ -4706,7 +4841,7 @@
         <v>14418</v>
       </c>
       <c r="Q57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R57">
         <v>-70.91</v>
@@ -4714,19 +4849,22 @@
       <c r="S57">
         <v>42.47</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F58">
         <v>20</v>
@@ -4762,7 +4900,7 @@
         <v>3471</v>
       </c>
       <c r="Q58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R58">
         <v>-70.93000000000001</v>
@@ -4771,18 +4909,18 @@
         <v>42.43</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F59">
         <v>58</v>
@@ -4824,18 +4962,18 @@
         <v>42.57</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F60">
         <v>11</v>
@@ -4871,7 +5009,7 @@
         <v>27419</v>
       </c>
       <c r="Q60" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R60">
         <v>-70.95</v>
@@ -4880,18 +5018,18 @@
         <v>42.57</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F61">
         <v>32</v>
@@ -4927,7 +5065,7 @@
         <v>5321</v>
       </c>
       <c r="Q61" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R61">
         <v>-70.76000000000001</v>
@@ -4936,18 +5074,18 @@
         <v>42.56</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F62">
         <v>96</v>
@@ -4989,18 +5127,18 @@
         <v>42.77</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F63">
         <v>11</v>
@@ -5036,7 +5174,7 @@
         <v>5135</v>
       </c>
       <c r="Q63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R63">
         <v>-70.88</v>
@@ -5045,18 +5183,18 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F64">
         <v>115</v>
@@ -5092,7 +5230,7 @@
         <v>17978</v>
       </c>
       <c r="Q64" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R64">
         <v>-70.73</v>
@@ -5101,18 +5239,18 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F65">
         <v>3200</v>
@@ -5148,7 +5286,7 @@
         <v>231405</v>
       </c>
       <c r="Q65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R65">
         <v>-71.05</v>
@@ -5157,18 +5295,18 @@
         <v>42.34</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F66">
         <v>448</v>
@@ -5204,7 +5342,7 @@
         <v>89006</v>
       </c>
       <c r="Q66" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R66">
         <v>-71.06</v>
@@ -5213,18 +5351,18 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F67">
         <v>226</v>
@@ -5260,7 +5398,7 @@
         <v>17598</v>
       </c>
       <c r="Q67" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R67">
         <v>-71.13</v>
@@ -5269,18 +5407,18 @@
         <v>42.35</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F68">
         <v>1213</v>
@@ -5322,18 +5460,18 @@
         <v>42.36</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F69">
         <v>653</v>
@@ -5375,18 +5513,18 @@
         <v>42.39</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F70">
         <v>239</v>
@@ -5422,7 +5560,7 @@
         <v>93349</v>
       </c>
       <c r="Q70" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R70">
         <v>-71</v>
@@ -5431,18 +5569,18 @@
         <v>42.26</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F71">
         <v>58</v>
@@ -5478,7 +5616,7 @@
         <v>15444</v>
       </c>
       <c r="Q71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R71">
         <v>-70.67</v>
@@ -5487,18 +5625,18 @@
         <v>42.04</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F72">
         <v>371</v>
@@ -5534,7 +5672,7 @@
         <v>58024</v>
       </c>
       <c r="Q72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R72">
         <v>-70.66</v>
@@ -5543,18 +5681,18 @@
         <v>41.95</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F73">
         <v>407</v>
@@ -5596,18 +5734,18 @@
         <v>42.34</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F74">
         <v>26</v>
@@ -5643,7 +5781,7 @@
         <v>10959</v>
       </c>
       <c r="Q74" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R74">
         <v>-71.3</v>
@@ -5652,18 +5790,18 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F75">
         <v>12</v>
@@ -5699,7 +5837,7 @@
         <v>20185</v>
       </c>
       <c r="Q75" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R75">
         <v>-71.23999999999999</v>
@@ -5708,18 +5846,18 @@
         <v>42.28</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F76">
         <v>62</v>
@@ -5760,19 +5898,22 @@
       <c r="S76">
         <v>41.52</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F77">
         <v>1251</v>
@@ -5814,18 +5955,18 @@
         <v>41.26</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E78" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F78">
         <v>78</v>
@@ -5867,18 +6008,18 @@
         <v>41.69</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F79">
         <v>63</v>
@@ -5920,18 +6061,18 @@
         <v>41.79</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F80">
         <v>326</v>
@@ -5973,18 +6114,18 @@
         <v>41.65</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F81">
         <v>81</v>
@@ -6020,7 +6161,7 @@
         <v>2355</v>
       </c>
       <c r="Q81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R81">
         <v>-70.3</v>
@@ -6029,18 +6170,18 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F82">
         <v>757</v>
@@ -6081,19 +6222,22 @@
       <c r="S82">
         <v>41.76</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F83">
         <v>247</v>
@@ -6135,18 +6279,18 @@
         <v>41.64</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F84">
         <v>584</v>
@@ -6188,18 +6332,18 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E85" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F85">
         <v>53</v>
@@ -6241,18 +6385,18 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E86" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F86">
         <v>207</v>
@@ -6294,18 +6438,18 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E87" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F87">
         <v>85</v>
@@ -6347,18 +6491,18 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E88" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F88">
         <v>310</v>
@@ -6400,18 +6544,18 @@
         <v>42.04</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F89">
         <v>494</v>
@@ -6453,18 +6597,18 @@
         <v>41.79</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E90" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F90">
         <v>116</v>
@@ -6506,18 +6650,18 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F91">
         <v>100</v>
@@ -6559,18 +6703,18 @@
         <v>41.89</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E92" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F92">
         <v>168</v>
@@ -6612,18 +6756,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F93">
         <v>632</v>
@@ -6665,18 +6809,18 @@
         <v>41.93</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E94" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F94">
         <v>86</v>
@@ -6718,18 +6862,18 @@
         <v>41.68</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F95">
         <v>323</v>
@@ -6771,18 +6915,18 @@
         <v>41.66</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F96">
         <v>51</v>
@@ -6824,18 +6968,18 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E97" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F97">
         <v>15</v>
@@ -6871,7 +7015,7 @@
         <v>16236</v>
       </c>
       <c r="Q97" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R97">
         <v>-71.18000000000001</v>
@@ -6880,18 +7024,18 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E98" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F98">
         <v>85</v>
@@ -6933,18 +7077,18 @@
         <v>41.66</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F99">
         <v>213</v>
@@ -6986,18 +7130,18 @@
         <v>41.16</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E100" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F100">
         <v>965</v>
@@ -7039,18 +7183,18 @@
         <v>41.51</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F101">
         <v>60</v>
@@ -7091,19 +7235,22 @@
       <c r="S101">
         <v>41.59</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F102">
         <v>320</v>
@@ -7145,18 +7292,18 @@
         <v>41.45</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E103" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F103">
         <v>979</v>
@@ -7198,18 +7345,18 @@
         <v>41.39</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F104">
         <v>282</v>
@@ -7251,18 +7398,18 @@
         <v>41.37</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F105">
         <v>727</v>
@@ -7298,7 +7445,7 @@
         <v>204856</v>
       </c>
       <c r="Q105" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R105">
         <v>-71.41</v>
@@ -7307,18 +7454,18 @@
         <v>41.82</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E106" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F106">
         <v>11</v>
@@ -7354,7 +7501,7 @@
         <v>14996</v>
       </c>
       <c r="Q106" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R106">
         <v>-72.81</v>
@@ -7363,18 +7510,18 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F107">
         <v>142</v>
@@ -7410,7 +7557,7 @@
         <v>123807</v>
       </c>
       <c r="Q107" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R107">
         <v>-72.68000000000001</v>
@@ -7419,18 +7566,18 @@
         <v>41.76</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E108" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F108">
         <v>47</v>
@@ -7466,7 +7613,7 @@
         <v>63674</v>
       </c>
       <c r="Q108" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R108">
         <v>-72.73999999999999</v>
@@ -7475,18 +7622,18 @@
         <v>41.75</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C109" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E109" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F109">
         <v>94</v>
@@ -7522,7 +7669,7 @@
         <v>27270</v>
       </c>
       <c r="Q109" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R109">
         <v>-72.09999999999999</v>
@@ -7531,18 +7678,18 @@
         <v>41.35</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E110" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F110">
         <v>84</v>
@@ -7578,7 +7725,7 @@
         <v>31467</v>
       </c>
       <c r="Q110" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R110">
         <v>-72.06999999999999</v>
@@ -7586,19 +7733,22 @@
       <c r="S110">
         <v>41.32</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E111" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F111">
         <v>164</v>
@@ -7634,7 +7784,7 @@
         <v>12310</v>
       </c>
       <c r="Q111" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R111">
         <v>-71.97</v>
@@ -7642,19 +7792,22 @@
       <c r="S111">
         <v>41.35</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E112" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F112">
         <v>97</v>
@@ -7696,18 +7849,18 @@
         <v>41.32</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F113">
         <v>62</v>
@@ -7748,19 +7901,22 @@
       <c r="S113">
         <v>41.55</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F114">
         <v>87</v>
@@ -7796,7 +7952,7 @@
         <v>5350</v>
       </c>
       <c r="Q114" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R114">
         <v>-71.90000000000001</v>
@@ -7805,18 +7961,18 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E115" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F115">
         <v>47</v>
@@ -7858,18 +8014,18 @@
         <v>41.33</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E116" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F116">
         <v>79</v>
@@ -7911,18 +8067,18 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E117" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F117">
         <v>55</v>
@@ -7964,18 +8120,18 @@
         <v>41.27</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C118" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E118" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F118">
         <v>59</v>
@@ -8017,18 +8173,18 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E119" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F119">
         <v>98</v>
@@ -8064,7 +8220,7 @@
         <v>18247</v>
       </c>
       <c r="Q119" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R119">
         <v>-72.59</v>
@@ -8073,18 +8229,18 @@
         <v>41.27</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E120" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F120">
         <v>125</v>
@@ -8126,18 +8282,18 @@
         <v>41.23</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E121" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F121">
         <v>78</v>
@@ -8179,18 +8335,18 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E122" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F122">
         <v>379</v>
@@ -8226,7 +8382,7 @@
         <v>130146</v>
       </c>
       <c r="Q122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R122">
         <v>-72.92</v>
@@ -8234,19 +8390,22 @@
       <c r="S122">
         <v>41.31</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E123" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F123">
         <v>52</v>
@@ -8282,7 +8441,7 @@
         <v>54972</v>
       </c>
       <c r="Q123" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R123">
         <v>-72.95999999999999</v>
@@ -8291,18 +8450,18 @@
         <v>41.27</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F124">
         <v>50</v>
@@ -8343,19 +8502,22 @@
       <c r="S124">
         <v>41.58</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E125" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F125">
         <v>100</v>
@@ -8397,18 +8559,18 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E126" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F126">
         <v>14</v>
@@ -8450,18 +8612,18 @@
         <v>40.81</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E127" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F127">
         <v>36</v>
@@ -8503,18 +8665,18 @@
         <v>40.85</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F128">
         <v>282</v>
@@ -8556,18 +8718,18 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C129" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E129" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F129">
         <v>230</v>
@@ -8609,18 +8771,18 @@
         <v>40.77</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E130" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F130">
         <v>230</v>
@@ -8656,7 +8818,7 @@
         <v>13671</v>
       </c>
       <c r="Q130" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R130">
         <v>-74.02</v>
@@ -8665,18 +8827,18 @@
         <v>40.77</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E131" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F131">
         <v>430</v>
@@ -8718,18 +8880,18 @@
         <v>40.77</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C132" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F132">
         <v>295</v>
@@ -8771,18 +8933,18 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F133">
         <v>29</v>
@@ -8824,18 +8986,18 @@
         <v>40.78</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E134" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F134">
         <v>3100</v>
@@ -8877,18 +9039,18 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E135" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F135">
         <v>653</v>
@@ -8924,7 +9086,7 @@
         <v>280242</v>
       </c>
       <c r="Q135" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R135">
         <v>-74.17</v>
@@ -8933,18 +9095,18 @@
         <v>40.72</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E136" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F136">
         <v>183</v>
@@ -8985,19 +9147,22 @@
       <c r="S136">
         <v>40.67</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C137" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E137" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F137">
         <v>4</v>
@@ -9039,18 +9204,18 @@
         <v>40.98</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E138" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F138">
         <v>106</v>
@@ -9092,18 +9257,18 @@
         <v>41.18</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E139" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F139">
         <v>7</v>
@@ -9145,18 +9310,18 @@
         <v>40.99</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E140" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F140">
         <v>42</v>
@@ -9197,19 +9362,22 @@
       <c r="S140">
         <v>40.91</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E141" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F141">
         <v>7</v>
@@ -9251,18 +9419,18 @@
         <v>40.97</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F142">
         <v>23</v>
@@ -9304,18 +9472,18 @@
         <v>40.84</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E143" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F143">
         <v>19</v>
@@ -9357,18 +9525,18 @@
         <v>40.94</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E144" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F144">
         <v>133</v>
@@ -9410,18 +9578,18 @@
         <v>40.22</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E145" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F145">
         <v>173</v>
@@ -9463,18 +9631,18 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C146" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F146">
         <v>163</v>
@@ -9516,18 +9684,18 @@
         <v>40.15</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F147">
         <v>1380</v>
@@ -9569,18 +9737,18 @@
         <v>39.54</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E148" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F148">
         <v>73</v>
@@ -9622,18 +9790,18 @@
         <v>39.69</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F149">
         <v>42</v>
@@ -9669,7 +9837,7 @@
         <v>38656</v>
       </c>
       <c r="Q149" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R149">
         <v>-74.47</v>
@@ -9678,18 +9846,18 @@
         <v>39.48</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E150" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F150">
         <v>700</v>
@@ -9731,18 +9899,18 @@
         <v>38.94</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C151" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E151" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F151">
         <v>68</v>
@@ -9784,18 +9952,18 @@
         <v>38.93</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F152">
         <v>1091</v>
@@ -9837,18 +10005,18 @@
         <v>39.26</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C153" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F153">
         <v>147</v>
@@ -9890,18 +10058,18 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F154">
         <v>1830</v>
@@ -9943,18 +10111,18 @@
         <v>38.98</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C155" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F155">
         <v>484</v>
@@ -9995,19 +10163,22 @@
       <c r="S155">
         <v>39.36</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F156">
         <v>155</v>
@@ -10043,7 +10214,7 @@
         <v>54093</v>
       </c>
       <c r="Q156" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R156">
         <v>-74.65000000000001</v>
@@ -10052,18 +10223,18 @@
         <v>40.35</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C157" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F157">
         <v>487</v>
@@ -10105,18 +10276,18 @@
         <v>39.94</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B158" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C158" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E158" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F158">
         <v>69</v>
@@ -10152,7 +10323,7 @@
         <v>141464</v>
       </c>
       <c r="Q158" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R158">
         <v>-75.75</v>
@@ -10160,19 +10331,22 @@
       <c r="S158">
         <v>39.67</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C159" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E159" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F159">
         <v>144</v>
@@ -10208,7 +10382,7 @@
         <v>217838</v>
       </c>
       <c r="Q159" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R159">
         <v>-75.53</v>
@@ -10216,19 +10390,22 @@
       <c r="S159">
         <v>39.73</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E160" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F160">
         <v>52</v>
@@ -10264,7 +10441,7 @@
         <v>70755</v>
       </c>
       <c r="Q160" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R160">
         <v>-75.54000000000001</v>
@@ -10272,19 +10449,22 @@
       <c r="S160">
         <v>39.15</v>
       </c>
+      <c r="T160" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="161" spans="1:19">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C161" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F161">
         <v>1336</v>
@@ -10320,7 +10500,7 @@
         <v>2266</v>
       </c>
       <c r="Q161" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R161">
         <v>-75.06</v>
@@ -10331,16 +10511,16 @@
     </row>
     <row r="162" spans="1:19">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C162" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F162">
         <v>154</v>
@@ -10376,7 +10556,7 @@
         <v>626</v>
       </c>
       <c r="Q162" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R162">
         <v>-75.05</v>
@@ -10387,16 +10567,16 @@
     </row>
     <row r="163" spans="1:19">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C163" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F163">
         <v>366</v>
@@ -10432,7 +10612,7 @@
         <v>23580</v>
       </c>
       <c r="Q163" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R163">
         <v>-75.17</v>
@@ -10443,16 +10623,16 @@
     </row>
     <row r="164" spans="1:19">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B164" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C164" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F164">
         <v>82</v>
@@ -10488,7 +10668,7 @@
         <v>20395</v>
       </c>
       <c r="Q164" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R164">
         <v>-75.43000000000001</v>
@@ -10499,16 +10679,16 @@
     </row>
     <row r="165" spans="1:19">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B165" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C165" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F165">
         <v>93</v>
@@ -10544,7 +10724,7 @@
         <v>27957</v>
       </c>
       <c r="Q165" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R165">
         <v>-75.29000000000001</v>
@@ -10555,16 +10735,16 @@
     </row>
     <row r="166" spans="1:19">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B166" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E166" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F166">
         <v>90</v>
@@ -10600,7 +10780,7 @@
         <v>9760</v>
       </c>
       <c r="Q166" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R166">
         <v>-75.31</v>
@@ -10611,16 +10791,16 @@
     </row>
     <row r="167" spans="1:19">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B167" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C167" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F167">
         <v>1600</v>
@@ -10656,7 +10836,7 @@
         <v>12173</v>
       </c>
       <c r="Q167" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R167">
         <v>-75.09</v>
@@ -10667,16 +10847,16 @@
     </row>
     <row r="168" spans="1:19">
       <c r="A168" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C168" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E168" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F168">
         <v>245</v>
@@ -10720,16 +10900,16 @@
     </row>
     <row r="169" spans="1:19">
       <c r="A169" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B169" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F169">
         <v>1760</v>
@@ -10765,7 +10945,7 @@
         <v>634289</v>
       </c>
       <c r="Q169" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R169">
         <v>-76.61</v>
@@ -10776,16 +10956,16 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B170" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C170" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E170" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F170">
         <v>775</v>
@@ -10821,7 +11001,7 @@
         <v>94813</v>
       </c>
       <c r="Q170" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R170">
         <v>-76.5</v>
@@ -10832,16 +11012,16 @@
     </row>
     <row r="171" spans="1:19">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B171" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F171">
         <v>677</v>
@@ -10877,7 +11057,7 @@
         <v>1192</v>
       </c>
       <c r="Q171" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R171">
         <v>-79.34999999999999</v>
@@ -10888,16 +11068,16 @@
     </row>
     <row r="172" spans="1:19">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E172" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F172">
         <v>629</v>
@@ -10933,7 +11113,7 @@
         <v>14452</v>
       </c>
       <c r="Q172" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R172">
         <v>-79.41</v>
@@ -10944,16 +11124,16 @@
     </row>
     <row r="173" spans="1:19">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C173" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E173" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F173">
         <v>284</v>
@@ -10989,7 +11169,7 @@
         <v>2506</v>
       </c>
       <c r="Q173" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R173">
         <v>-79.20999999999999</v>
@@ -11000,16 +11180,16 @@
     </row>
     <row r="174" spans="1:19">
       <c r="A174" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C174" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E174" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F174">
         <v>75</v>
@@ -11045,7 +11225,7 @@
         <v>23986</v>
       </c>
       <c r="Q174" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R174">
         <v>-76.06999999999999</v>
@@ -11056,16 +11236,16 @@
     </row>
     <row r="175" spans="1:19">
       <c r="A175" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B175" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C175" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E175" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F175">
         <v>167</v>
@@ -11109,16 +11289,16 @@
     </row>
     <row r="176" spans="1:19">
       <c r="A176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B176" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F176">
         <v>63</v>
@@ -11154,7 +11334,7 @@
         <v>3119</v>
       </c>
       <c r="Q176" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R176">
         <v>-76.22</v>
@@ -11163,18 +11343,18 @@
         <v>38.78</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C177" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F177">
         <v>52</v>
@@ -11216,18 +11396,18 @@
         <v>38.99</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B178" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C178" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E178" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F178">
         <v>147</v>
@@ -11263,7 +11443,7 @@
         <v>126812</v>
       </c>
       <c r="Q178" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R178">
         <v>-77.41</v>
@@ -11271,19 +11451,22 @@
       <c r="S178">
         <v>39.42</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B179" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C179" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E179" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F179">
         <v>59</v>
@@ -11324,19 +11507,22 @@
       <c r="S179">
         <v>38.37</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E180" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F180">
         <v>391</v>
@@ -11378,18 +11564,18 @@
         <v>38.32</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E181" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F181">
         <v>4306</v>
@@ -11425,7 +11611,7 @@
         <v>11036</v>
       </c>
       <c r="Q181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R181">
         <v>-75.08</v>
@@ -11434,21 +11620,21 @@
         <v>38.33</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C182" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D182" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E182" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F182">
         <v>160</v>
@@ -11489,22 +11675,25 @@
       <c r="S182">
         <v>42.35</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C183" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D183" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E183" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F183">
         <v>160</v>
@@ -11545,22 +11734,25 @@
       <c r="S183">
         <v>42.35</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C184" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D184" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E184" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F184">
         <v>41</v>
@@ -11601,22 +11793,25 @@
       <c r="S184">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C185" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D185" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E185" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F185">
         <v>56</v>
@@ -11658,21 +11853,21 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B186" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C186" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D186" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E186" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F186">
         <v>313</v>
@@ -11714,21 +11909,21 @@
         <v>41.45</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B187" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C187" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D187" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E187" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F187">
         <v>681</v>
@@ -11770,21 +11965,21 @@
         <v>41.83</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B188" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C188" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D188" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E188" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F188">
         <v>315</v>
@@ -11826,21 +12021,21 @@
         <v>41.69</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B189" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C189" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D189" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E189" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F189">
         <v>42</v>
@@ -11882,21 +12077,21 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B190" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C190" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D190" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E190" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F190">
         <v>130</v>
@@ -11937,22 +12132,25 @@
       <c r="S190">
         <v>41.67</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B191" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C191" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D191" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F191">
         <v>329</v>
@@ -11994,21 +12192,21 @@
         <v>39.09</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B192" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C192" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D192" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E192" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F192">
         <v>541</v>
@@ -12050,21 +12248,21 @@
         <v>39.15</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C193" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D193" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E193" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F193">
         <v>77</v>
@@ -12106,21 +12304,21 @@
         <v>40.02</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C194" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D194" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E194" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F194">
         <v>76</v>
@@ -12161,22 +12359,25 @@
       <c r="S194">
         <v>39.21</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C195" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D195" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E195" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F195">
         <v>86</v>
@@ -12212,7 +12413,7 @@
         <v>8392</v>
       </c>
       <c r="Q195" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R195">
         <v>-78.18000000000001</v>
@@ -12221,21 +12422,21 @@
         <v>38.13</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B196" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C196" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E196" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F196">
         <v>1265</v>
@@ -12277,21 +12478,21 @@
         <v>42.06</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B197" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C197" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D197" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E197" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F197">
         <v>133</v>
@@ -12333,21 +12534,21 @@
         <v>39.04</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C198" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D198" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E198" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F198">
         <v>342</v>
@@ -12383,7 +12584,7 @@
         <v>24365</v>
       </c>
       <c r="Q198" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R198">
         <v>-74.04000000000001</v>

--- a/data/df.xlsx
+++ b/data/df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="411">
   <si>
     <t>state</t>
   </si>
@@ -958,7 +958,7 @@
     <t>Permit required - doable</t>
   </si>
   <si>
-    <t>6% tax. + (8.5% tax for any rental that can do &gt; 4 ppl in home at a time -- considering make this to all sizes). BPOL Licencse is required if botht these are true: 1) gross revenue &gt;10,000 annually. 2) rent&gt; 4 seperate swelling uits</t>
+    <t>6% tax. + (8.5% tax for any rental that can do &gt; 4 ppl in home at a time -- considering make this to all sizes). BPOL Licencse is required if botht these are true: 1) gross revenue &gt;10,000 annually. 2) rent&gt; 4 seperate dwelling uits</t>
   </si>
   <si>
     <t>need zoning permit and/or a conditional use permit from the Planning Department, number of guests per night on permit, inspections, if withitn a HOA need they recommendation too</t>
@@ -1202,6 +1202,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
   <si>
     <t>permit</t>
@@ -1896,7 +1899,7 @@
         <v>38.92</v>
       </c>
       <c r="T5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2070,7 +2073,7 @@
         <v>38.43</v>
       </c>
       <c r="T8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2129,7 +2132,7 @@
         <v>38.83</v>
       </c>
       <c r="T9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2247,7 +2250,7 @@
         <v>38.36</v>
       </c>
       <c r="T11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2704,7 +2707,7 @@
         <v>37.96</v>
       </c>
       <c r="T19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2763,7 +2766,7 @@
         <v>37.43</v>
       </c>
       <c r="T20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -2878,7 +2881,7 @@
         <v>38</v>
       </c>
       <c r="T22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3220,7 +3223,7 @@
         <v>36.92</v>
       </c>
       <c r="T28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -3612,7 +3615,7 @@
         <v>37.14</v>
       </c>
       <c r="T35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3671,7 +3674,7 @@
         <v>37.16</v>
       </c>
       <c r="T36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3730,7 +3733,7 @@
         <v>37.18</v>
       </c>
       <c r="T37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3845,7 +3848,7 @@
         <v>38.15</v>
       </c>
       <c r="T39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4054,7 +4057,7 @@
         <v>42.27</v>
       </c>
       <c r="T43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -4113,7 +4116,7 @@
         <v>42.21</v>
       </c>
       <c r="T44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -4225,7 +4228,7 @@
         <v>42.32</v>
       </c>
       <c r="T46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -4850,7 +4853,7 @@
         <v>42.47</v>
       </c>
       <c r="T57" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -5899,7 +5902,7 @@
         <v>41.52</v>
       </c>
       <c r="T76" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -6223,7 +6226,7 @@
         <v>41.76</v>
       </c>
       <c r="T82" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -7236,7 +7239,7 @@
         <v>41.59</v>
       </c>
       <c r="T101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -7734,7 +7737,7 @@
         <v>41.32</v>
       </c>
       <c r="T110" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -7793,7 +7796,7 @@
         <v>41.35</v>
       </c>
       <c r="T111" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -7902,7 +7905,7 @@
         <v>41.55</v>
       </c>
       <c r="T113" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -8503,7 +8506,7 @@
         <v>41.58</v>
       </c>
       <c r="T124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -10164,7 +10167,7 @@
         <v>39.36</v>
       </c>
       <c r="T155" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -10332,7 +10335,7 @@
         <v>39.67</v>
       </c>
       <c r="T158" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -10450,7 +10453,7 @@
         <v>39.15</v>
       </c>
       <c r="T160" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -11452,7 +11455,7 @@
         <v>39.42</v>
       </c>
       <c r="T178" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -11508,7 +11511,7 @@
         <v>38.37</v>
       </c>
       <c r="T179" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -12133,7 +12136,7 @@
         <v>41.67</v>
       </c>
       <c r="T190" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -12360,7 +12363,7 @@
         <v>39.21</v>
       </c>
       <c r="T194" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195" spans="1:20">
